--- a/IntranetPortal/IntranetPortal/TempDataFile/LeadsList.xlsx
+++ b/IntranetPortal/IntranetPortal/TempDataFile/LeadsList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="394">
   <si>
     <t>BBLE</t>
   </si>
@@ -921,668 +921,293 @@
     <t xml:space="preserve">4013350064 </t>
   </si>
   <si>
-    <t xml:space="preserve">4032100014 </t>
-  </si>
-  <si>
-    <t>Office Dead Lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032430056 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032100010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032310039 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031320069 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032730054 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032320025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032140038 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4022270042 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3054010066 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031310047 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4116590074 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017550049 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016950056 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4022200029 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032480010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017500005 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4033340214 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031790091 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014280014 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016980011 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031890039 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013730020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013710037 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4022480079 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014910053 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018800011 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016690046 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4020110042 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2053340039 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4009450036 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4012440051 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4022410028 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4011730074 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018950054 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032040024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032990015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013810145 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014310042 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4116880010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4033030007 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019610020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017430129 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017620033 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4011640065 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4012560032 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014140025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4020010023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4035990056 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010980042 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031460023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016300018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3038460048 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014520022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017600022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014010015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4022430047 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014090043 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031330063 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031850017 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019330007 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4119930005 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4011740010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017000064 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019440077 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031930024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3007400069 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019830059 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016710050 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019580015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031120034 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031900030 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031980022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013950030 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019510015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4021920050 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032160056 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031460012 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2027650335 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019800020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013720032 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4157050081 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031840026 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3035960035 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016980069 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031910048 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017620030 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018870051 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3033820045 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018830017 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031300002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016380069 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013840040 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013940056 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4015500003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014140062 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2038850013 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4033790050 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031300050 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3054180049 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3035090019 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016590025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4033090025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4011300018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4015850046 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013730075 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4117120051 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032630057 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4015580042 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019680143 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010700004 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032410042 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010520034 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014100033 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031370017 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4033850056 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014610078 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3036110004 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016590016 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010880025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4020030178 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4011470023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031500050 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031480031 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019340027 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032080018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017000016 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032210060 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031500047 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018920084 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017020027 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4121020005 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013630048 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014290017 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031970054 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016700024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2044470003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4011070051 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014660015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032080020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031450003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014220062 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031350008 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018820063 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014830036 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010900038 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031190042 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031900067 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4116840050 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016380054 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4022450002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018860111 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014250060 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102040014 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4015250098 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014030015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031400056 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010900063 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017510014 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032410027 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031890024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4022190021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4028060027 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016890050 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013850031 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014030013 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031930035 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016500004 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4011190005 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019310047 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031620014 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016450121 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032090058 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032090022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031890059 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3035260324 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3035380005 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3036110040 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3070210060 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3072680225 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017800029 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018810013 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3061880006 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010880027 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014080022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014080044 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016540036 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016690054 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016950038 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018770043 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018840044 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4056230028 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4021720044 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031820013 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031820022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031900013 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032020035 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032030016 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032160029 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032410047 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032660057 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032810057 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4139401084 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4140080090 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013830026 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014450019 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014480051 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014790027 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4003280001 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4114800024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4115561031 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031130037 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031210024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031430010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4031470028 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4116450045 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055820131 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3015520012 </t>
+    <t>4021770047</t>
+  </si>
+  <si>
+    <t>4022190021</t>
+  </si>
+  <si>
+    <t>4022200029</t>
+  </si>
+  <si>
+    <t>4032480010</t>
+  </si>
+  <si>
+    <t>4032990015</t>
+  </si>
+  <si>
+    <t>4021920050</t>
+  </si>
+  <si>
+    <t>4022270042</t>
+  </si>
+  <si>
+    <t>4021910040</t>
+  </si>
+  <si>
+    <t>4022430047</t>
+  </si>
+  <si>
+    <t>4022410028</t>
+  </si>
+  <si>
+    <t>4033070007</t>
+  </si>
+  <si>
+    <t>4032910060</t>
+  </si>
+  <si>
+    <t>4032810057</t>
+  </si>
+  <si>
+    <t>4033030007</t>
+  </si>
+  <si>
+    <t>4033340230</t>
+  </si>
+  <si>
+    <t>4033340214</t>
+  </si>
+  <si>
+    <t>4033010018</t>
+  </si>
+  <si>
+    <t>4033090025</t>
+  </si>
+  <si>
+    <t>4032320025</t>
+  </si>
+  <si>
+    <t>4031190042</t>
+  </si>
+  <si>
+    <t>4031240007</t>
+  </si>
+  <si>
+    <t>4031210024</t>
+  </si>
+  <si>
+    <t>4031330063</t>
+  </si>
+  <si>
+    <t>4031320069</t>
+  </si>
+  <si>
+    <t>4031300050</t>
+  </si>
+  <si>
+    <t>4031300002</t>
+  </si>
+  <si>
+    <t>4031310047</t>
+  </si>
+  <si>
+    <t>4031500050</t>
+  </si>
+  <si>
+    <t>4031500047</t>
+  </si>
+  <si>
+    <t>4031900030</t>
+  </si>
+  <si>
+    <t>4031890039</t>
+  </si>
+  <si>
+    <t>4031620014</t>
+  </si>
+  <si>
+    <t>4031850017</t>
+  </si>
+  <si>
+    <t>4031820013</t>
+  </si>
+  <si>
+    <t>4031840026</t>
+  </si>
+  <si>
+    <t>4031500019</t>
+  </si>
+  <si>
+    <t>4031900013</t>
+  </si>
+  <si>
+    <t>4031890059</t>
+  </si>
+  <si>
+    <t>4031900067</t>
+  </si>
+  <si>
+    <t>4031890024</t>
+  </si>
+  <si>
+    <t>4031910048</t>
+  </si>
+  <si>
+    <t>4031970054</t>
+  </si>
+  <si>
+    <t>4031920024</t>
+  </si>
+  <si>
+    <t>4032030016</t>
+  </si>
+  <si>
+    <t>4031930017</t>
+  </si>
+  <si>
+    <t>4031930035</t>
+  </si>
+  <si>
+    <t>4031980022</t>
+  </si>
+  <si>
+    <t>4032040024</t>
+  </si>
+  <si>
+    <t>4031930024</t>
+  </si>
+  <si>
+    <t>4032180010</t>
+  </si>
+  <si>
+    <t>4032160056</t>
+  </si>
+  <si>
+    <t>4032100014</t>
+  </si>
+  <si>
+    <t>4032090058</t>
+  </si>
+  <si>
+    <t>4032080018</t>
+  </si>
+  <si>
+    <t>4032080020</t>
+  </si>
+  <si>
+    <t>4032090022</t>
+  </si>
+  <si>
+    <t>4032160047</t>
+  </si>
+  <si>
+    <t>4031790091</t>
+  </si>
+  <si>
+    <t>4032160029</t>
+  </si>
+  <si>
+    <t>4032140038</t>
+  </si>
+  <si>
+    <t>4022450002</t>
+  </si>
+  <si>
+    <t>4032210060</t>
+  </si>
+  <si>
+    <t>4032220024</t>
+  </si>
+  <si>
+    <t>4032440008</t>
+  </si>
+  <si>
+    <t>4032430056</t>
+  </si>
+  <si>
+    <t>4032410047</t>
+  </si>
+  <si>
+    <t>4032410042</t>
+  </si>
+  <si>
+    <t>4032410027</t>
+  </si>
+  <si>
+    <t>4032660057</t>
+  </si>
+  <si>
+    <t>4022480079</t>
+  </si>
+  <si>
+    <t>4032630057</t>
+  </si>
+  <si>
+    <t>4032730054</t>
+  </si>
+  <si>
+    <t>4031370017</t>
+  </si>
+  <si>
+    <t>4031460023</t>
+  </si>
+  <si>
+    <t>4031400056</t>
+  </si>
+  <si>
+    <t>4031420034</t>
+  </si>
+  <si>
+    <t>4031470028</t>
+  </si>
+  <si>
+    <t>4031480031</t>
+  </si>
+  <si>
+    <t>4031450003</t>
+  </si>
+  <si>
+    <t>4031460060</t>
+  </si>
+  <si>
+    <t>4031400037</t>
+  </si>
+  <si>
+    <t>4031460012</t>
+  </si>
+  <si>
+    <t>4031430010</t>
+  </si>
+  <si>
+    <t>4031130037</t>
+  </si>
+  <si>
+    <t>4031350008</t>
+  </si>
+  <si>
+    <t>4031120034</t>
+  </si>
+  <si>
+    <t>4031820022</t>
+  </si>
+  <si>
+    <t>4032210010</t>
+  </si>
+  <si>
+    <t>4032100010</t>
+  </si>
+  <si>
+    <t>4031980008</t>
+  </si>
+  <si>
+    <t>4032310039</t>
+  </si>
+  <si>
+    <t>4032020035</t>
+  </si>
+  <si>
+    <t>4032270040</t>
+  </si>
+  <si>
+    <t>GukasyanTeam Office</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1618,16 +1243,11 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,18 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1698,21 +1307,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,7 +1586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1993,21 +1597,20 @@
   <dimension ref="A1:I1860"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C287"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2021,2920 +1624,1951 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>301</v>
+      <c r="C2" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>301</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>301</v>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E4" s="1"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>301</v>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E5" s="1"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>301</v>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E6" s="1"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>301</v>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>301</v>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>301</v>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>301</v>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>301</v>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>301</v>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>301</v>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>301</v>
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>301</v>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>301</v>
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>301</v>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>301</v>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>301</v>
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>301</v>
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>301</v>
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>301</v>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>301</v>
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>301</v>
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>301</v>
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>301</v>
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>301</v>
+    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>301</v>
+    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>301</v>
+    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>301</v>
+    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>301</v>
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>301</v>
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>301</v>
+    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>301</v>
+    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>301</v>
+    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>301</v>
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>301</v>
+    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>301</v>
+    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>301</v>
+    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>301</v>
+    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>301</v>
+    <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>301</v>
+    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>301</v>
+    <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>301</v>
+    <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>301</v>
+    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>301</v>
+    <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>301</v>
+    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>301</v>
+    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>301</v>
+    <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>301</v>
+    <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>301</v>
+    <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>301</v>
+    <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>301</v>
+    <row r="53" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>301</v>
+    <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>301</v>
+    <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>301</v>
+    <row r="56" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>301</v>
+    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>301</v>
+    <row r="58" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>301</v>
+    <row r="59" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>301</v>
+    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>301</v>
+    <row r="61" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>301</v>
+    <row r="62" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>301</v>
+    <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>301</v>
+    <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>301</v>
+    <row r="65" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>301</v>
+    <row r="66" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>301</v>
+    <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>301</v>
+    <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>301</v>
+    <row r="69" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>301</v>
+    <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>301</v>
+    <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>301</v>
+    <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>301</v>
+    <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>301</v>
+    <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>301</v>
+    <row r="75" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>301</v>
+    <row r="76" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>301</v>
+    <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>301</v>
+    <row r="78" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>301</v>
+    <row r="79" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>301</v>
+    <row r="80" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>301</v>
+    <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>301</v>
+    <row r="82" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>301</v>
+    <row r="83" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>301</v>
+    <row r="84" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>301</v>
+    <row r="85" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>301</v>
+    <row r="86" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>301</v>
+    <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>301</v>
+    <row r="88" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>301</v>
+    <row r="89" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>301</v>
+    <row r="90" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>301</v>
+    <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>301</v>
+    <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>301</v>
+    <row r="93" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+    <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>301</v>
-      </c>
+      <c r="C95" s="9"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>301</v>
-      </c>
+      <c r="C96" s="9"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="154" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="155" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="156" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="157" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="158" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="159" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="160" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="166" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="167" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="168" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="172" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="173" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="176" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="177" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="178" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="179" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="180" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="181" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="182" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="183" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="184" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="185" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="186" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="187" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="188" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C188" s="9"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="189" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C189" s="9"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="190" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C190" s="9"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="191" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C191" s="9"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="192" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C192" s="9"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="193" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C193" s="9"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="194" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C194" s="9"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="195" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C195" s="9"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="196" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C196" s="9"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="197" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C197" s="9"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="198" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C198" s="9"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="199" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C199" s="9"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="200" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C200" s="9"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="201" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C201" s="9"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="202" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C202" s="9"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="203" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C203" s="9"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="204" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C204" s="9"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="205" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C205" s="9"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="206" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C206" s="9"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="207" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C207" s="9"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="208" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C208" s="9"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="209" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C209" s="9"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="210" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C210" s="9"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="211" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C211" s="9"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="212" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C212" s="9"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="213" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C213" s="9"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="214" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C214" s="9"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="215" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C215" s="9"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="216" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C216" s="9"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="217" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C217" s="9"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="218" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C218" s="9"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="219" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C219" s="9"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="220" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C220" s="9"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="221" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C221" s="9"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="222" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C222" s="9"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="223" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C223" s="9"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="224" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C224" s="9"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="225" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C225" s="9"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="226" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C226" s="9"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="227" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C227" s="9"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="228" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C228" s="9"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="229" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C229" s="9"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="230" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C230" s="9"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="231" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C231" s="9"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="232" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C232" s="9"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="233" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C233" s="9"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="234" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C234" s="9"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="235" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C235" s="9"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="236" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C236" s="9"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="237" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C237" s="9"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="238" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C238" s="9"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="239" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C239" s="9"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="240" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C240" s="9"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="241" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C241" s="9"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="242" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C242" s="9"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="243" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C243" s="9"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="244" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C244" s="9"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="245" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C245" s="9"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="246" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C246" s="9"/>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="247" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C247" s="9"/>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="248" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C248" s="9"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="249" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C249" s="9"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="250" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C250" s="9"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="251" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C251" s="9"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="252" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C252" s="9"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="253" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C253" s="9"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="254" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C254" s="9"/>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="255" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C255" s="9"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="256" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C256" s="9"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="257" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C257" s="9"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="258" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C258" s="9"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="259" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C259" s="9"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="260" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C260" s="9"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="261" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C261" s="9"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="262" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C262" s="9"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="263" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C263" s="9"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="264" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C264" s="9"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="265" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C265" s="9"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="266" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C266" s="9"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="267" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C267" s="9"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C268" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="268" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C268" s="9"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="269" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C269" s="9"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="270" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C270" s="9"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="271" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C271" s="9"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="272" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C272" s="9"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C273" s="9"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C274" s="9"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C275" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C275" s="9"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C276" s="9"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C277" s="9"/>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C278" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C278" s="9"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C279" s="9"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C280" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C280" s="9"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C281" s="9"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C282" s="9"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C283" s="9"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C284" s="9"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C285" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C285" s="9"/>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C286" s="9"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>301</v>
-      </c>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C287" s="9"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="10"/>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B288" s="7"/>
+      <c r="C288" s="9"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="8"/>
-      <c r="B289" s="8"/>
-      <c r="C289" s="10"/>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" s="7"/>
+      <c r="C289" s="9"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="10"/>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B290" s="7"/>
+      <c r="C290" s="9"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="10"/>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B291" s="7"/>
+      <c r="C291" s="9"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C292" s="3"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C293" s="3"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C294" s="3"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C295" s="3"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C296" s="3"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C297" s="3"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C298" s="3"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C299" s="3"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C300" s="3"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C301" s="3"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="3"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="3"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="3"/>
       <c r="H304" s="2"/>
@@ -11189,7 +9823,6 @@
       <c r="C1860" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C1860"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11213,2928 +9846,2928 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10" t="s">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="10" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="10" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="10" t="s">
+      <c r="B76" s="7"/>
+      <c r="C76" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="10" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="10" t="s">
+      <c r="B78" s="7"/>
+      <c r="C78" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="10" t="s">
+      <c r="B79" s="7"/>
+      <c r="C79" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="7"/>
+      <c r="C83" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="7"/>
+      <c r="C84" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="10" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="10" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="10" t="s">
+      <c r="B87" s="7"/>
+      <c r="C87" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="10" t="s">
+      <c r="B88" s="7"/>
+      <c r="C88" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="10" t="s">
+      <c r="B89" s="7"/>
+      <c r="C89" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="10" t="s">
+      <c r="B90" s="7"/>
+      <c r="C90" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="7"/>
+      <c r="C91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="10" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="10" t="s">
+      <c r="B93" s="7"/>
+      <c r="C93" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="10" t="s">
+      <c r="B94" s="7"/>
+      <c r="C94" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="10" t="s">
+      <c r="B95" s="7"/>
+      <c r="C95" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="10" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="10" t="s">
+      <c r="B97" s="7"/>
+      <c r="C97" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="10" t="s">
+      <c r="B98" s="7"/>
+      <c r="C98" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="10" t="s">
+      <c r="B99" s="7"/>
+      <c r="C99" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="10" t="s">
+      <c r="B100" s="7"/>
+      <c r="C100" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="10" t="s">
+      <c r="B101" s="7"/>
+      <c r="C101" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="10" t="s">
+      <c r="B102" s="7"/>
+      <c r="C102" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="10" t="s">
+      <c r="B103" s="7"/>
+      <c r="C103" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="10" t="s">
+      <c r="B104" s="7"/>
+      <c r="C104" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="10" t="s">
+      <c r="B105" s="7"/>
+      <c r="C105" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="10" t="s">
+      <c r="B106" s="7"/>
+      <c r="C106" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="10" t="s">
+      <c r="B107" s="7"/>
+      <c r="C107" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="10" t="s">
+      <c r="B108" s="7"/>
+      <c r="C108" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="10" t="s">
+      <c r="B109" s="7"/>
+      <c r="C109" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="10" t="s">
+      <c r="B110" s="7"/>
+      <c r="C110" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="10" t="s">
+      <c r="B111" s="7"/>
+      <c r="C111" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="10" t="s">
+      <c r="B112" s="7"/>
+      <c r="C112" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="10" t="s">
+      <c r="B113" s="7"/>
+      <c r="C113" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="10" t="s">
+      <c r="B114" s="7"/>
+      <c r="C114" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="10" t="s">
+      <c r="B115" s="7"/>
+      <c r="C115" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="10" t="s">
+      <c r="B116" s="7"/>
+      <c r="C116" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="10" t="s">
+      <c r="B117" s="7"/>
+      <c r="C117" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="10" t="s">
+      <c r="B118" s="7"/>
+      <c r="C118" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="10" t="s">
+      <c r="B119" s="7"/>
+      <c r="C119" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="10" t="s">
+      <c r="B120" s="7"/>
+      <c r="C120" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="10" t="s">
+      <c r="B121" s="7"/>
+      <c r="C121" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="10" t="s">
+      <c r="B122" s="7"/>
+      <c r="C122" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="10" t="s">
+      <c r="B123" s="7"/>
+      <c r="C123" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="10" t="s">
+      <c r="B124" s="7"/>
+      <c r="C124" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="10" t="s">
+      <c r="B125" s="7"/>
+      <c r="C125" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="10" t="s">
+      <c r="B126" s="7"/>
+      <c r="C126" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="10" t="s">
+      <c r="B127" s="7"/>
+      <c r="C127" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="10" t="s">
+      <c r="B128" s="7"/>
+      <c r="C128" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="10" t="s">
+      <c r="B129" s="7"/>
+      <c r="C129" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="10" t="s">
+      <c r="B130" s="7"/>
+      <c r="C130" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="10" t="s">
+      <c r="B131" s="7"/>
+      <c r="C131" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="10" t="s">
+      <c r="B132" s="7"/>
+      <c r="C132" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="10" t="s">
+      <c r="B133" s="7"/>
+      <c r="C133" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="10" t="s">
+      <c r="B134" s="7"/>
+      <c r="C134" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="10" t="s">
+      <c r="B135" s="7"/>
+      <c r="C135" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="10" t="s">
+      <c r="B136" s="7"/>
+      <c r="C136" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="10" t="s">
+      <c r="B137" s="7"/>
+      <c r="C137" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="10" t="s">
+      <c r="B138" s="7"/>
+      <c r="C138" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="10" t="s">
+      <c r="B139" s="7"/>
+      <c r="C139" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="10" t="s">
+      <c r="B140" s="7"/>
+      <c r="C140" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="10" t="s">
+      <c r="B141" s="7"/>
+      <c r="C141" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="10" t="s">
+      <c r="B142" s="7"/>
+      <c r="C142" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="10" t="s">
+      <c r="B143" s="7"/>
+      <c r="C143" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="10" t="s">
+      <c r="B144" s="7"/>
+      <c r="C144" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="10" t="s">
+      <c r="B145" s="7"/>
+      <c r="C145" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="10" t="s">
+      <c r="B146" s="7"/>
+      <c r="C146" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="10" t="s">
+      <c r="B147" s="7"/>
+      <c r="C147" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="10" t="s">
+      <c r="B148" s="7"/>
+      <c r="C148" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="10" t="s">
+      <c r="B149" s="7"/>
+      <c r="C149" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="10" t="s">
+      <c r="B150" s="7"/>
+      <c r="C150" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="10" t="s">
+      <c r="B151" s="7"/>
+      <c r="C151" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B152" s="8"/>
-      <c r="C152" s="10" t="s">
+      <c r="B152" s="7"/>
+      <c r="C152" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="10" t="s">
+      <c r="B153" s="7"/>
+      <c r="C153" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="10" t="s">
+      <c r="B154" s="7"/>
+      <c r="C154" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="10" t="s">
+      <c r="B155" s="7"/>
+      <c r="C155" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="10" t="s">
+      <c r="B156" s="7"/>
+      <c r="C156" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="10" t="s">
+      <c r="B157" s="7"/>
+      <c r="C157" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="10" t="s">
+      <c r="B158" s="7"/>
+      <c r="C158" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="10" t="s">
+      <c r="B159" s="7"/>
+      <c r="C159" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B160" s="8"/>
-      <c r="C160" s="10" t="s">
+      <c r="B160" s="7"/>
+      <c r="C160" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="10" t="s">
+      <c r="B161" s="7"/>
+      <c r="C161" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="10" t="s">
+      <c r="B162" s="7"/>
+      <c r="C162" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B163" s="8"/>
-      <c r="C163" s="10" t="s">
+      <c r="B163" s="7"/>
+      <c r="C163" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="10" t="s">
+      <c r="B164" s="7"/>
+      <c r="C164" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="10" t="s">
+      <c r="B165" s="7"/>
+      <c r="C165" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B166" s="8"/>
-      <c r="C166" s="10" t="s">
+      <c r="B166" s="7"/>
+      <c r="C166" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="10" t="s">
+      <c r="B167" s="7"/>
+      <c r="C167" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="10" t="s">
+      <c r="B168" s="7"/>
+      <c r="C168" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B169" s="8"/>
-      <c r="C169" s="10" t="s">
+      <c r="B169" s="7"/>
+      <c r="C169" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="10" t="s">
+      <c r="B170" s="7"/>
+      <c r="C170" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="10" t="s">
+      <c r="B171" s="7"/>
+      <c r="C171" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B172" s="8"/>
-      <c r="C172" s="10" t="s">
+      <c r="B172" s="7"/>
+      <c r="C172" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="10" t="s">
+      <c r="B173" s="7"/>
+      <c r="C173" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="10" t="s">
+      <c r="B174" s="7"/>
+      <c r="C174" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="10" t="s">
+      <c r="B175" s="7"/>
+      <c r="C175" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="10" t="s">
+      <c r="B176" s="7"/>
+      <c r="C176" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="10" t="s">
+      <c r="B177" s="7"/>
+      <c r="C177" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="10" t="s">
+      <c r="B178" s="7"/>
+      <c r="C178" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B179" s="8"/>
-      <c r="C179" s="10" t="s">
+      <c r="B179" s="7"/>
+      <c r="C179" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B180" s="8"/>
-      <c r="C180" s="10" t="s">
+      <c r="B180" s="7"/>
+      <c r="C180" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B181" s="8"/>
-      <c r="C181" s="10" t="s">
+      <c r="B181" s="7"/>
+      <c r="C181" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="10" t="s">
+      <c r="B182" s="7"/>
+      <c r="C182" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="10" t="s">
+      <c r="B183" s="7"/>
+      <c r="C183" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="10" t="s">
+      <c r="B184" s="7"/>
+      <c r="C184" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="10" t="s">
+      <c r="B185" s="7"/>
+      <c r="C185" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B186" s="8"/>
-      <c r="C186" s="10" t="s">
+      <c r="B186" s="7"/>
+      <c r="C186" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="10" t="s">
+      <c r="B187" s="7"/>
+      <c r="C187" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B188" s="8"/>
-      <c r="C188" s="10" t="s">
+      <c r="B188" s="7"/>
+      <c r="C188" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="10" t="s">
+      <c r="B189" s="7"/>
+      <c r="C189" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="8"/>
-      <c r="C190" s="10" t="s">
+      <c r="B190" s="7"/>
+      <c r="C190" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="10" t="s">
+      <c r="B191" s="7"/>
+      <c r="C191" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="8"/>
-      <c r="C192" s="10" t="s">
+      <c r="B192" s="7"/>
+      <c r="C192" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B193" s="8"/>
-      <c r="C193" s="10" t="s">
+      <c r="B193" s="7"/>
+      <c r="C193" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="10" t="s">
+      <c r="B194" s="7"/>
+      <c r="C194" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="8"/>
-      <c r="C195" s="10" t="s">
+      <c r="B195" s="7"/>
+      <c r="C195" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D195" s="1"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B196" s="8"/>
-      <c r="C196" s="10" t="s">
+      <c r="B196" s="7"/>
+      <c r="C196" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D196" s="1"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="10" t="s">
+      <c r="B197" s="7"/>
+      <c r="C197" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="8"/>
-      <c r="C198" s="10" t="s">
+      <c r="B198" s="7"/>
+      <c r="C198" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B199" s="8"/>
-      <c r="C199" s="10" t="s">
+      <c r="B199" s="7"/>
+      <c r="C199" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="10" t="s">
+      <c r="B200" s="7"/>
+      <c r="C200" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B201" s="8"/>
-      <c r="C201" s="10" t="s">
+      <c r="B201" s="7"/>
+      <c r="C201" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B202" s="8"/>
-      <c r="C202" s="10" t="s">
+      <c r="B202" s="7"/>
+      <c r="C202" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D202" s="1"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B203" s="8"/>
-      <c r="C203" s="10" t="s">
+      <c r="B203" s="7"/>
+      <c r="C203" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B204" s="8"/>
-      <c r="C204" s="10" t="s">
+      <c r="B204" s="7"/>
+      <c r="C204" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B205" s="8"/>
-      <c r="C205" s="10" t="s">
+      <c r="B205" s="7"/>
+      <c r="C205" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B206" s="8"/>
-      <c r="C206" s="10" t="s">
+      <c r="B206" s="7"/>
+      <c r="C206" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B207" s="8"/>
-      <c r="C207" s="10" t="s">
+      <c r="B207" s="7"/>
+      <c r="C207" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B208" s="8"/>
-      <c r="C208" s="10" t="s">
+      <c r="B208" s="7"/>
+      <c r="C208" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B209" s="8"/>
-      <c r="C209" s="10" t="s">
+      <c r="B209" s="7"/>
+      <c r="C209" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D209" s="1"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B210" s="8"/>
-      <c r="C210" s="10" t="s">
+      <c r="B210" s="7"/>
+      <c r="C210" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D210" s="1"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B211" s="8"/>
-      <c r="C211" s="10" t="s">
+      <c r="B211" s="7"/>
+      <c r="C211" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D211" s="1"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B212" s="8"/>
-      <c r="C212" s="10" t="s">
+      <c r="B212" s="7"/>
+      <c r="C212" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D212" s="1"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B213" s="8"/>
-      <c r="C213" s="10" t="s">
+      <c r="B213" s="7"/>
+      <c r="C213" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D213" s="1"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B214" s="8"/>
-      <c r="C214" s="10" t="s">
+      <c r="B214" s="7"/>
+      <c r="C214" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B215" s="8"/>
-      <c r="C215" s="10" t="s">
+      <c r="B215" s="7"/>
+      <c r="C215" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D215" s="1"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B216" s="8"/>
-      <c r="C216" s="10" t="s">
+      <c r="B216" s="7"/>
+      <c r="C216" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D216" s="1"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="8"/>
-      <c r="C217" s="10" t="s">
+      <c r="B217" s="7"/>
+      <c r="C217" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B218" s="8"/>
-      <c r="C218" s="10" t="s">
+      <c r="B218" s="7"/>
+      <c r="C218" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D218" s="1"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B219" s="8"/>
-      <c r="C219" s="10" t="s">
+      <c r="B219" s="7"/>
+      <c r="C219" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D219" s="1"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B220" s="8"/>
-      <c r="C220" s="10" t="s">
+      <c r="B220" s="7"/>
+      <c r="C220" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D220" s="1"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="10" t="s">
+      <c r="B221" s="7"/>
+      <c r="C221" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D221" s="1"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="10" t="s">
+      <c r="B222" s="7"/>
+      <c r="C222" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B223" s="8"/>
-      <c r="C223" s="10" t="s">
+      <c r="B223" s="7"/>
+      <c r="C223" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="8"/>
-      <c r="C224" s="10" t="s">
+      <c r="B224" s="7"/>
+      <c r="C224" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B225" s="8"/>
-      <c r="C225" s="10" t="s">
+      <c r="B225" s="7"/>
+      <c r="C225" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D225" s="1"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B226" s="8"/>
-      <c r="C226" s="10" t="s">
+      <c r="B226" s="7"/>
+      <c r="C226" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B227" s="8"/>
-      <c r="C227" s="10" t="s">
+      <c r="B227" s="7"/>
+      <c r="C227" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D227" s="1"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
+      <c r="A228" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B228" s="8"/>
-      <c r="C228" s="10" t="s">
+      <c r="B228" s="7"/>
+      <c r="C228" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D228" s="1"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B229" s="8"/>
-      <c r="C229" s="10" t="s">
+      <c r="B229" s="7"/>
+      <c r="C229" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D229" s="1"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B230" s="8"/>
-      <c r="C230" s="10" t="s">
+      <c r="B230" s="7"/>
+      <c r="C230" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D230" s="1"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B231" s="8"/>
-      <c r="C231" s="10" t="s">
+      <c r="B231" s="7"/>
+      <c r="C231" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B232" s="8"/>
-      <c r="C232" s="10" t="s">
+      <c r="B232" s="7"/>
+      <c r="C232" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B233" s="8"/>
-      <c r="C233" s="10" t="s">
+      <c r="B233" s="7"/>
+      <c r="C233" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B234" s="8"/>
-      <c r="C234" s="10" t="s">
+      <c r="B234" s="7"/>
+      <c r="C234" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="8" t="s">
+      <c r="A235" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B235" s="8"/>
-      <c r="C235" s="10" t="s">
+      <c r="B235" s="7"/>
+      <c r="C235" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="8" t="s">
+      <c r="A236" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B236" s="8"/>
-      <c r="C236" s="10" t="s">
+      <c r="B236" s="7"/>
+      <c r="C236" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B237" s="8"/>
-      <c r="C237" s="10" t="s">
+      <c r="B237" s="7"/>
+      <c r="C237" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B238" s="8"/>
-      <c r="C238" s="10" t="s">
+      <c r="B238" s="7"/>
+      <c r="C238" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B239" s="8"/>
-      <c r="C239" s="10" t="s">
+      <c r="B239" s="7"/>
+      <c r="C239" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="8" t="s">
+      <c r="A240" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B240" s="8"/>
-      <c r="C240" s="10" t="s">
+      <c r="B240" s="7"/>
+      <c r="C240" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B241" s="8"/>
-      <c r="C241" s="10" t="s">
+      <c r="B241" s="7"/>
+      <c r="C241" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B242" s="8"/>
-      <c r="C242" s="10" t="s">
+      <c r="B242" s="7"/>
+      <c r="C242" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="8" t="s">
+      <c r="A243" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B243" s="8"/>
-      <c r="C243" s="10" t="s">
+      <c r="B243" s="7"/>
+      <c r="C243" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="8" t="s">
+      <c r="A244" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B244" s="8"/>
-      <c r="C244" s="10" t="s">
+      <c r="B244" s="7"/>
+      <c r="C244" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="8" t="s">
+      <c r="A245" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B245" s="8"/>
-      <c r="C245" s="10" t="s">
+      <c r="B245" s="7"/>
+      <c r="C245" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B246" s="8"/>
-      <c r="C246" s="10" t="s">
+      <c r="B246" s="7"/>
+      <c r="C246" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B247" s="8"/>
-      <c r="C247" s="10" t="s">
+      <c r="B247" s="7"/>
+      <c r="C247" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="8" t="s">
+      <c r="A248" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B248" s="8"/>
-      <c r="C248" s="10" t="s">
+      <c r="B248" s="7"/>
+      <c r="C248" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B249" s="8"/>
-      <c r="C249" s="10" t="s">
+      <c r="B249" s="7"/>
+      <c r="C249" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B250" s="8"/>
-      <c r="C250" s="10" t="s">
+      <c r="B250" s="7"/>
+      <c r="C250" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B251" s="8"/>
-      <c r="C251" s="10" t="s">
+      <c r="B251" s="7"/>
+      <c r="C251" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B252" s="8"/>
-      <c r="C252" s="10" t="s">
+      <c r="B252" s="7"/>
+      <c r="C252" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="8" t="s">
+      <c r="A253" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B253" s="8"/>
-      <c r="C253" s="10" t="s">
+      <c r="B253" s="7"/>
+      <c r="C253" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="8" t="s">
+      <c r="A254" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B254" s="8"/>
-      <c r="C254" s="10" t="s">
+      <c r="B254" s="7"/>
+      <c r="C254" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="8" t="s">
+      <c r="A255" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B255" s="8"/>
-      <c r="C255" s="10" t="s">
+      <c r="B255" s="7"/>
+      <c r="C255" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="8" t="s">
+      <c r="A256" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B256" s="8"/>
-      <c r="C256" s="10" t="s">
+      <c r="B256" s="7"/>
+      <c r="C256" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B257" s="8"/>
-      <c r="C257" s="10" t="s">
+      <c r="B257" s="7"/>
+      <c r="C257" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="8" t="s">
+      <c r="A258" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B258" s="8"/>
-      <c r="C258" s="10" t="s">
+      <c r="B258" s="7"/>
+      <c r="C258" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B259" s="8"/>
-      <c r="C259" s="10" t="s">
+      <c r="B259" s="7"/>
+      <c r="C259" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="8" t="s">
+      <c r="A260" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B260" s="8"/>
-      <c r="C260" s="10" t="s">
+      <c r="B260" s="7"/>
+      <c r="C260" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="8" t="s">
+      <c r="A261" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B261" s="8"/>
-      <c r="C261" s="10" t="s">
+      <c r="B261" s="7"/>
+      <c r="C261" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="8" t="s">
+      <c r="A262" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B262" s="8"/>
-      <c r="C262" s="10" t="s">
+      <c r="B262" s="7"/>
+      <c r="C262" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B263" s="8"/>
-      <c r="C263" s="10" t="s">
+      <c r="B263" s="7"/>
+      <c r="C263" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="8" t="s">
+      <c r="A264" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B264" s="8"/>
-      <c r="C264" s="10" t="s">
+      <c r="B264" s="7"/>
+      <c r="C264" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B265" s="8"/>
-      <c r="C265" s="10" t="s">
+      <c r="B265" s="7"/>
+      <c r="C265" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="8" t="s">
+      <c r="A266" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B266" s="8"/>
-      <c r="C266" s="10" t="s">
+      <c r="B266" s="7"/>
+      <c r="C266" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="8" t="s">
+      <c r="A267" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B267" s="8"/>
-      <c r="C267" s="10" t="s">
+      <c r="B267" s="7"/>
+      <c r="C267" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="8" t="s">
+      <c r="A268" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B268" s="8"/>
-      <c r="C268" s="10" t="s">
+      <c r="B268" s="7"/>
+      <c r="C268" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="8" t="s">
+      <c r="A269" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B269" s="8"/>
-      <c r="C269" s="10" t="s">
+      <c r="B269" s="7"/>
+      <c r="C269" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="8" t="s">
+      <c r="A270" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="10" t="s">
+      <c r="B270" s="7"/>
+      <c r="C270" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="8" t="s">
+      <c r="A271" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="10" t="s">
+      <c r="B271" s="7"/>
+      <c r="C271" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="8" t="s">
+      <c r="A272" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B272" s="8"/>
-      <c r="C272" s="10" t="s">
+      <c r="B272" s="7"/>
+      <c r="C272" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="8" t="s">
+      <c r="A273" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B273" s="8"/>
-      <c r="C273" s="10" t="s">
+      <c r="B273" s="7"/>
+      <c r="C273" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="8" t="s">
+      <c r="A274" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B274" s="8"/>
-      <c r="C274" s="10" t="s">
+      <c r="B274" s="7"/>
+      <c r="C274" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="s">
+      <c r="A275" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B275" s="8"/>
-      <c r="C275" s="10" t="s">
+      <c r="B275" s="7"/>
+      <c r="C275" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="8" t="s">
+      <c r="A276" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B276" s="8"/>
-      <c r="C276" s="10" t="s">
+      <c r="B276" s="7"/>
+      <c r="C276" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="s">
+      <c r="A277" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B277" s="8"/>
-      <c r="C277" s="10" t="s">
+      <c r="B277" s="7"/>
+      <c r="C277" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B278" s="8"/>
-      <c r="C278" s="10" t="s">
+      <c r="B278" s="7"/>
+      <c r="C278" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="8" t="s">
+      <c r="A279" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B279" s="8"/>
-      <c r="C279" s="10" t="s">
+      <c r="B279" s="7"/>
+      <c r="C279" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="8" t="s">
+      <c r="A280" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B280" s="8"/>
-      <c r="C280" s="10" t="s">
+      <c r="B280" s="7"/>
+      <c r="C280" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="8" t="s">
+      <c r="A281" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B281" s="8"/>
-      <c r="C281" s="10" t="s">
+      <c r="B281" s="7"/>
+      <c r="C281" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="8" t="s">
+      <c r="A282" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="8"/>
-      <c r="C282" s="10" t="s">
+      <c r="B282" s="7"/>
+      <c r="C282" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="8" t="s">
+      <c r="A283" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B283" s="8"/>
-      <c r="C283" s="10" t="s">
+      <c r="B283" s="7"/>
+      <c r="C283" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="8" t="s">
+      <c r="A284" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B284" s="8"/>
-      <c r="C284" s="10" t="s">
+      <c r="B284" s="7"/>
+      <c r="C284" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="8" t="s">
+      <c r="A285" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B285" s="8"/>
-      <c r="C285" s="10" t="s">
+      <c r="B285" s="7"/>
+      <c r="C285" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="8" t="s">
+      <c r="A286" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B286" s="8"/>
-      <c r="C286" s="10" t="s">
+      <c r="B286" s="7"/>
+      <c r="C286" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="8" t="s">
+      <c r="A287" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B287" s="8"/>
-      <c r="C287" s="10" t="s">
+      <c r="B287" s="7"/>
+      <c r="C287" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="8" t="s">
+      <c r="A288" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B288" s="8"/>
-      <c r="C288" s="10" t="s">
+      <c r="B288" s="7"/>
+      <c r="C288" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="8" t="s">
+      <c r="A289" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B289" s="8"/>
-      <c r="C289" s="10" t="s">
+      <c r="B289" s="7"/>
+      <c r="C289" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="8" t="s">
+      <c r="A290" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="8"/>
-      <c r="C290" s="10" t="s">
+      <c r="B290" s="7"/>
+      <c r="C290" s="9" t="s">
         <v>93</v>
       </c>
     </row>

--- a/IntranetPortal/IntranetPortal/TempDataFile/LeadsList.xlsx
+++ b/IntranetPortal/IntranetPortal/TempDataFile/LeadsList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="327">
   <si>
     <t>BBLE</t>
   </si>
@@ -921,286 +921,85 @@
     <t xml:space="preserve">4013350064 </t>
   </si>
   <si>
-    <t>4021770047</t>
-  </si>
-  <si>
-    <t>4022190021</t>
-  </si>
-  <si>
-    <t>4022200029</t>
-  </si>
-  <si>
-    <t>4032480010</t>
-  </si>
-  <si>
-    <t>4032990015</t>
-  </si>
-  <si>
-    <t>4021920050</t>
-  </si>
-  <si>
-    <t>4022270042</t>
-  </si>
-  <si>
-    <t>4021910040</t>
-  </si>
-  <si>
-    <t>4022430047</t>
-  </si>
-  <si>
-    <t>4022410028</t>
-  </si>
-  <si>
-    <t>4033070007</t>
-  </si>
-  <si>
-    <t>4032910060</t>
-  </si>
-  <si>
-    <t>4032810057</t>
-  </si>
-  <si>
-    <t>4033030007</t>
-  </si>
-  <si>
-    <t>4033340230</t>
-  </si>
-  <si>
-    <t>4033340214</t>
-  </si>
-  <si>
-    <t>4033010018</t>
-  </si>
-  <si>
-    <t>4033090025</t>
-  </si>
-  <si>
-    <t>4032320025</t>
-  </si>
-  <si>
-    <t>4031190042</t>
-  </si>
-  <si>
-    <t>4031240007</t>
-  </si>
-  <si>
-    <t>4031210024</t>
-  </si>
-  <si>
-    <t>4031330063</t>
-  </si>
-  <si>
-    <t>4031320069</t>
-  </si>
-  <si>
-    <t>4031300050</t>
-  </si>
-  <si>
-    <t>4031300002</t>
-  </si>
-  <si>
-    <t>4031310047</t>
-  </si>
-  <si>
-    <t>4031500050</t>
-  </si>
-  <si>
-    <t>4031500047</t>
-  </si>
-  <si>
-    <t>4031900030</t>
-  </si>
-  <si>
-    <t>4031890039</t>
-  </si>
-  <si>
-    <t>4031620014</t>
-  </si>
-  <si>
-    <t>4031850017</t>
-  </si>
-  <si>
-    <t>4031820013</t>
-  </si>
-  <si>
-    <t>4031840026</t>
-  </si>
-  <si>
-    <t>4031500019</t>
-  </si>
-  <si>
-    <t>4031900013</t>
-  </si>
-  <si>
-    <t>4031890059</t>
-  </si>
-  <si>
-    <t>4031900067</t>
-  </si>
-  <si>
-    <t>4031890024</t>
-  </si>
-  <si>
-    <t>4031910048</t>
-  </si>
-  <si>
-    <t>4031970054</t>
-  </si>
-  <si>
-    <t>4031920024</t>
-  </si>
-  <si>
-    <t>4032030016</t>
-  </si>
-  <si>
-    <t>4031930017</t>
-  </si>
-  <si>
-    <t>4031930035</t>
-  </si>
-  <si>
-    <t>4031980022</t>
-  </si>
-  <si>
-    <t>4032040024</t>
-  </si>
-  <si>
-    <t>4031930024</t>
-  </si>
-  <si>
-    <t>4032180010</t>
-  </si>
-  <si>
-    <t>4032160056</t>
-  </si>
-  <si>
-    <t>4032100014</t>
-  </si>
-  <si>
-    <t>4032090058</t>
-  </si>
-  <si>
-    <t>4032080018</t>
-  </si>
-  <si>
-    <t>4032080020</t>
-  </si>
-  <si>
-    <t>4032090022</t>
-  </si>
-  <si>
-    <t>4032160047</t>
-  </si>
-  <si>
-    <t>4031790091</t>
-  </si>
-  <si>
-    <t>4032160029</t>
-  </si>
-  <si>
-    <t>4032140038</t>
-  </si>
-  <si>
-    <t>4022450002</t>
-  </si>
-  <si>
-    <t>4032210060</t>
-  </si>
-  <si>
-    <t>4032220024</t>
-  </si>
-  <si>
-    <t>4032440008</t>
-  </si>
-  <si>
-    <t>4032430056</t>
-  </si>
-  <si>
-    <t>4032410047</t>
-  </si>
-  <si>
-    <t>4032410042</t>
-  </si>
-  <si>
-    <t>4032410027</t>
-  </si>
-  <si>
-    <t>4032660057</t>
-  </si>
-  <si>
-    <t>4022480079</t>
-  </si>
-  <si>
-    <t>4032630057</t>
-  </si>
-  <si>
-    <t>4032730054</t>
-  </si>
-  <si>
-    <t>4031370017</t>
-  </si>
-  <si>
-    <t>4031460023</t>
-  </si>
-  <si>
-    <t>4031400056</t>
-  </si>
-  <si>
-    <t>4031420034</t>
-  </si>
-  <si>
-    <t>4031470028</t>
-  </si>
-  <si>
-    <t>4031480031</t>
-  </si>
-  <si>
-    <t>4031450003</t>
-  </si>
-  <si>
-    <t>4031460060</t>
-  </si>
-  <si>
-    <t>4031400037</t>
-  </si>
-  <si>
-    <t>4031460012</t>
-  </si>
-  <si>
-    <t>4031430010</t>
-  </si>
-  <si>
-    <t>4031130037</t>
-  </si>
-  <si>
-    <t>4031350008</t>
-  </si>
-  <si>
-    <t>4031120034</t>
-  </si>
-  <si>
-    <t>4031820022</t>
-  </si>
-  <si>
-    <t>4032210010</t>
-  </si>
-  <si>
-    <t>4032100010</t>
-  </si>
-  <si>
-    <t>4031980008</t>
-  </si>
-  <si>
-    <t>4032310039</t>
-  </si>
-  <si>
-    <t>4032020035</t>
-  </si>
-  <si>
-    <t>4032270040</t>
-  </si>
-  <si>
-    <t>GukasyanTeam Office</t>
+    <t>Erin Pastrana</t>
+  </si>
+  <si>
+    <t>Mike Gali</t>
+  </si>
+  <si>
+    <t>Magda Brillite</t>
+  </si>
+  <si>
+    <t>3020850001E</t>
+  </si>
+  <si>
+    <t>3036330001E</t>
+  </si>
+  <si>
+    <t>3019190100E</t>
+  </si>
+  <si>
+    <t>3020850050E</t>
+  </si>
+  <si>
+    <t>3032650030</t>
+  </si>
+  <si>
+    <t>Arthur Gukasyan</t>
+  </si>
+  <si>
+    <t>4030960064</t>
+  </si>
+  <si>
+    <t>4030960065</t>
+  </si>
+  <si>
+    <t>4030960066</t>
+  </si>
+  <si>
+    <t>4030960067</t>
+  </si>
+  <si>
+    <t>4030960068</t>
+  </si>
+  <si>
+    <t>4030960069</t>
+  </si>
+  <si>
+    <t>4030960070</t>
+  </si>
+  <si>
+    <t>4030960072</t>
+  </si>
+  <si>
+    <t>4030960073</t>
+  </si>
+  <si>
+    <t>4030960074</t>
+  </si>
+  <si>
+    <t>4030960075</t>
+  </si>
+  <si>
+    <t>4030960076</t>
+  </si>
+  <si>
+    <t>4030960078</t>
+  </si>
+  <si>
+    <t>4030960079</t>
+  </si>
+  <si>
+    <t>4030960080</t>
+  </si>
+  <si>
+    <t>4030960081</t>
+  </si>
+  <si>
+    <t>4030960082</t>
+  </si>
+  <si>
+    <t>4030960106</t>
   </si>
 </sst>
 </file>
@@ -1245,6 +1044,7 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1293,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1317,6 +1117,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,7 +1393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1596,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1860"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="F305" sqref="F305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,2031 +1431,3106 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11">
+        <v>3022650014</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>393</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>3029420105</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>393</v>
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>393</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3014510012</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E4" s="1"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>393</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3019120003</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="E5" s="1"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>393</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3011290025</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="E6" s="1"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>393</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>3014670035</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>393</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>3022490041</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>393</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>3017180015</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>393</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>3032310033</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="E10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>393</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>3015750001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>393</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>3020080016</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>393</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>3019090015</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="E13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>393</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3029420112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="E14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>393</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>3014950013</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="E15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>393</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>3029670050</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>393</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>3020330003</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="E17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>393</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>3020330002</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>393</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>3022630030</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>393</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>3031410023</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>393</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>3031200012</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>393</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>3022450035</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>393</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>3015840011</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>393</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>3031230023</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>393</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>3031510100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>393</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>3020190018</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>393</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>3022490122</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>393</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>3016300029</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>393</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>3011290054</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>393</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>4034920025</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>393</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>3020310007</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>393</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>393</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>3020330005</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>393</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>3011290081</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>393</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>3014360036</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>393</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>3016310034</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>393</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>3017760067</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>393</v>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>3012470030</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>393</v>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>3017890047</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>393</v>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>393</v>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>4038040001</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>393</v>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>3020330006</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>393</v>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>3031410001</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>393</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>3072470218</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>393</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>3015430007</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>393</v>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>4026490100</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>393</v>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>3032300002</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>393</v>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>3018740026</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>393</v>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>3016940001</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>393</v>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>3020330004</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>393</v>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>3014540040</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>393</v>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>3020080009</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>393</v>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>3034070021</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>393</v>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>3012130073</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>393</v>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>3012260066</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>393</v>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>3016910031</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>393</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>3030500018</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>393</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>4038090131</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>393</v>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>3020080013</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>393</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>3014520078</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>393</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>3013750075</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>393</v>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>3011330027</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>393</v>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>3031180019</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>393</v>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>3019190100</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>393</v>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>3018710030</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>393</v>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>3020900020</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>393</v>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>3011490065</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>393</v>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>3011490065</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>393</v>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>3018170001</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>393</v>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>3017350039</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>393</v>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>3012020032</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>393</v>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>3014360018</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>393</v>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>3020310043</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>393</v>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>3012050011</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>393</v>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>3020210001</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>393</v>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>3018860030</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>393</v>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>3020080006</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>393</v>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>3022640055</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>393</v>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>3030500014</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>393</v>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>3022660029</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>393</v>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>3027910037</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>393</v>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>3014370030</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>393</v>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>3011330015</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>393</v>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>3032560001</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>393</v>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>3032040024</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>393</v>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>3072600180</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>393</v>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>3019660031</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>393</v>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>3018850041</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>393</v>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>3014670022</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>393</v>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>3019620069</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>393</v>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>3020330001</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>393</v>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>3015380043</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>393</v>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>3017360039</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>393</v>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>3011480031</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+      <c r="A95" s="11">
+        <v>3014540038</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+      <c r="A96" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>3014570009</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>3017100009</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>3014370027</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>3014730014</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>3016230057</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>3017690069</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>3017890054</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>3018510058</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>3018810001</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>3014580121</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>3018080001</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>3020160069</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>3029740200</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>3032730001</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <v>3032350044</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <v>3011210047</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <v>3019140022</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
+        <v>3011330007</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
+        <v>3017360011</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <v>3022690025</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <v>3029980047</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
+        <v>3030930034</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
+        <v>3014370038</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <v>3019990029</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <v>3012000070</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>3017610074</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>3015840001</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>3014530073</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>3015860056</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>3015860053</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>3016640040</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>3020080045</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>3014740037</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>3019920021</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>3022370057</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <v>3018980019</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <v>3013420067</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <v>3019730015</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <v>3018540049</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <v>3014660001</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <v>3015510013</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
+        <v>3014370023</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <v>3072120003</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <v>3013570003</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
+        <v>3013380001</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <v>3014330023</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <v>3015490026</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="11">
+        <v>3016310058</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <v>3016620059</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <v>3017790024</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <v>3018080090</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>3019140017</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
+        <v>3019270042</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="11">
+        <v>3019840062</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="11">
+        <v>3022690045</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="11">
+        <v>3030400047</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="11">
+        <v>3022630065</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="11">
+        <v>3020080053</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="11">
+        <v>3032100031</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="11">
+        <v>3032950025</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="11">
+        <v>3031720012</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="11">
+        <v>3032660001</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="11">
+        <v>3032960014</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="11">
+        <v>3032450039</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="11">
+        <v>3032410001</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="11">
+        <v>3022660032</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="11">
+        <v>3033450025</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="11">
+        <v>3011290062</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="11">
+        <v>3011290046</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="11">
+        <v>3011450016</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="11">
+        <v>3017140022</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="11">
+        <v>3014650001</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="11">
+        <v>3032850072</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="11">
+        <v>3015840004</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="11">
+        <v>3034000035</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="11">
+        <v>3015570028</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="11">
+        <v>3022410039</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="11">
+        <v>3011400029</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="11">
+        <v>3011400029</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="11">
+        <v>3014680052</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="11">
+        <v>3030820031</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="11">
+        <v>3072120002</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="11">
+        <v>3017810040</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="11">
+        <v>3014510048</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="11">
+        <v>4034000034</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="11">
+        <v>3014460003</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="11">
+        <v>3018880019</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="11">
+        <v>3022620036</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="11">
+        <v>3022620042</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="11">
+        <v>3022620034</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C188" s="9"/>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="11">
+        <v>3022620040</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C189" s="9"/>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="11">
+        <v>3011530050</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C190" s="9"/>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="11">
+        <v>3032650011</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C191" s="9"/>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="11">
+        <v>3012470057</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C192" s="9"/>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="11">
+        <v>3014840043</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C193" s="9"/>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <v>3014460001</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C194" s="9"/>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="11">
+        <v>3014830036</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C195" s="9"/>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="11">
+        <v>3014840006</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C196" s="9"/>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="11">
+        <v>3014840008</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C197" s="9"/>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="11">
+        <v>3014840035</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C198" s="9"/>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="11">
+        <v>3014840041</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C199" s="9"/>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="11">
+        <v>3016590030</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C200" s="9"/>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="11">
+        <v>3017770056</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C201" s="9"/>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="11">
+        <v>3016990015</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C202" s="9"/>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="11">
+        <v>3017770059</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C203" s="9"/>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="11">
+        <v>3017770054</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C204" s="9"/>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="11">
+        <v>3017770058</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C205" s="9"/>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="11">
+        <v>3019570021</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C206" s="9"/>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="11">
+        <v>3019660056</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C207" s="9"/>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="11">
+        <v>3031370024</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C208" s="9"/>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="11">
+        <v>3032490012</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C209" s="9"/>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="11">
+        <v>3034430052</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C210" s="9"/>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="11">
+        <v>3018810008</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C211" s="9"/>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="11">
+        <v>3014480035</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C212" s="9"/>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="11">
+        <v>3022620030</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C213" s="9"/>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="11">
+        <v>3017790022</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C214" s="9"/>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="11">
+        <v>3016830081</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C215" s="9"/>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="11">
+        <v>3022410037</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C216" s="9"/>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="11">
+        <v>3014500011</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C217" s="9"/>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="11">
+        <v>3015840009</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
     </row>
-    <row r="218" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C218" s="9"/>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="11">
+        <v>3022370041</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C219" s="9"/>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="11">
+        <v>3011450015</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C220" s="9"/>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="11">
+        <v>3014750013</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C221" s="9"/>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="11">
+        <v>3019520003</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C222" s="9"/>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="11">
+        <v>3022690016</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C223" s="9"/>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="11">
+        <v>3030970008</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C224" s="9"/>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="11">
+        <v>3022690014</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C225" s="9"/>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="11">
+        <v>3032650065</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
     </row>
-    <row r="226" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C226" s="9"/>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="11">
+        <v>3011390029</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C227" s="9"/>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="11">
+        <v>3020120232</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
     </row>
-    <row r="228" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C228" s="9"/>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="11">
+        <v>3017930007</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C229" s="9"/>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="11">
+        <v>3011520031</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C230" s="9"/>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="11">
+        <v>3017930009</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C231" s="9"/>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="11">
+        <v>3011520029</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C232" s="9"/>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="11">
+        <v>3013750152</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C233" s="9"/>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="11">
+        <v>3012050046</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C234" s="9"/>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="11">
+        <v>3016240044</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C235" s="9"/>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="11">
+        <v>3017360035</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C236" s="9"/>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="11">
+        <v>3032590049</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C237" s="9"/>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="11">
+        <v>3030130030</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C238" s="9"/>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="11">
+        <v>3032350042</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C239" s="9"/>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="11">
+        <v>3011520023</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C240" s="9"/>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="11">
+        <v>3011520021</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C241" s="9"/>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="11">
+        <v>3019680005</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C242" s="9"/>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="11">
+        <v>3031930018</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C243" s="9"/>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="11">
+        <v>3032650031</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C244" s="9"/>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="11">
+        <v>3012400069</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C245" s="9"/>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="11">
+        <v>3012400068</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C246" s="9"/>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="11">
+        <v>3015560001</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C247" s="9"/>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="11">
+        <v>3018740024</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C248" s="9"/>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="11">
+        <v>3014550056</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C249" s="9"/>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="11">
+        <v>3015860001</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C250" s="9"/>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="11">
+        <v>3019410013</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C251" s="9"/>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="11">
+        <v>3015860041</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C252" s="9"/>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="11">
+        <v>3022690033</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C253" s="9"/>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="11">
+        <v>3019890011</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C254" s="9"/>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="11">
+        <v>3011440063</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C255" s="9"/>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="11">
+        <v>3011450024</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C256" s="9"/>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="11">
+        <v>3011740027</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C257" s="9"/>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="11">
+        <v>3017370041</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C258" s="9"/>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="11">
+        <v>3018950040</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C259" s="9"/>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="11">
+        <v>3011560039</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C260" s="9"/>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="11">
+        <v>3014510043</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C261" s="9"/>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="11">
+        <v>3031840013</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C262" s="9"/>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="11">
+        <v>3013630091</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C263" s="9"/>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="11">
+        <v>3013560054</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C264" s="9"/>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="11">
+        <v>3013630092</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C265" s="9"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="11">
+        <v>3013560053</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C266" s="9"/>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="11">
+        <v>3013560023</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C267" s="9"/>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="11">
+        <v>3013540080</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C268" s="9"/>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="11">
+        <v>3011290050</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C269" s="9"/>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="11">
+        <v>3022450145</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C270" s="9"/>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="11">
+        <v>3015480032</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C271" s="9"/>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="11">
+        <v>3014890006</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C272" s="9"/>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="11">
+        <v>3014550058</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C273" s="9"/>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="11">
+        <v>3013560051</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C274" s="9"/>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="11">
+        <v>3032550017</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C275" s="9"/>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="11">
+        <v>3015560003</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C276" s="9"/>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="11">
+        <v>3016280022</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C277" s="9"/>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="11">
+        <v>3016260078</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C278" s="9"/>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="11">
+        <v>3032650029</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C279" s="9"/>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="11">
+        <v>3033170045</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C280" s="9"/>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="11">
+        <v>3033170047</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C281" s="9"/>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="11">
+        <v>3022450142</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C282" s="9"/>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="11">
+        <v>3012050044</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C283" s="9"/>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="11">
+        <v>3015350046</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C284" s="9"/>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="11">
+        <v>3017530038</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C285" s="9"/>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="11">
+        <v>3016820070</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C286" s="9"/>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="11">
+        <v>3017530037</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C287" s="9"/>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="11">
+        <v>3017620020</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B288" s="7"/>
-      <c r="C288" s="9"/>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="11">
+        <v>3017660045</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B289" s="7"/>
-      <c r="C289" s="9"/>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="11">
+        <v>3018170052</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B290" s="7"/>
-      <c r="C290" s="9"/>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="11">
+        <v>3018980007</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B291" s="7"/>
-      <c r="C291" s="9"/>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="11">
+        <v>3020080056</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C292" s="3"/>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="11">
+        <v>3022370043</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C293" s="3"/>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="11">
+        <v>3029420111</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C294" s="3"/>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C295" s="3"/>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C295" t="s">
+        <v>308</v>
+      </c>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C296" s="3"/>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C296" t="s">
+        <v>308</v>
+      </c>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C297" s="3"/>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C297" t="s">
+        <v>308</v>
+      </c>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C298" s="3"/>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C298" t="s">
+        <v>308</v>
+      </c>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C299" s="3"/>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C299" t="s">
+        <v>308</v>
+      </c>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C300" s="3"/>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C300" t="s">
+        <v>308</v>
+      </c>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C301" s="3"/>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C301" t="s">
+        <v>308</v>
+      </c>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B302" s="1"/>
-      <c r="C302" s="3"/>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C302" t="s">
+        <v>308</v>
+      </c>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B303" s="1"/>
-      <c r="C303" s="3"/>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C303" t="s">
+        <v>308</v>
+      </c>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B304" s="1"/>
-      <c r="C304" s="3"/>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C304" t="s">
+        <v>308</v>
+      </c>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B305" s="1"/>
-      <c r="C305" s="3"/>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C305" t="s">
+        <v>308</v>
+      </c>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B306" s="1"/>
-      <c r="C306" s="3"/>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C306" t="s">
+        <v>308</v>
+      </c>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B307" s="1"/>
-      <c r="C307" s="3"/>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C307" t="s">
+        <v>308</v>
+      </c>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B308" s="1"/>
-      <c r="C308" s="3"/>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C308" t="s">
+        <v>308</v>
+      </c>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B309" s="1"/>
-      <c r="C309" s="3"/>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C309" t="s">
+        <v>308</v>
+      </c>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B310" s="1"/>
-      <c r="C310" s="3"/>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C310" t="s">
+        <v>308</v>
+      </c>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B311" s="1"/>
-      <c r="C311" s="3"/>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C311" t="s">
+        <v>308</v>
+      </c>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B312" s="1"/>
-      <c r="C312" s="3"/>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C312" t="s">
+        <v>308</v>
+      </c>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="3"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="3"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="3"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="3"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="3"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="3"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="3"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="3"/>
       <c r="H320" s="2"/>
